--- a/Resultados.xlsx
+++ b/Resultados.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gaspac-my.sharepoint.com/personal/operaciones_ingenieria_gaspac_co/Documents/Lina Ariza/Uniandes/Diseño y Analisis de Algoritmos/Tarea 5/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Santiago\Desktop\Hero\U. Andes\Dalgo\Tarea-5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BE706FF-F880-4AE8-8A16-4DFA9F028063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D6084B-D71E-4D6A-9084-15F56A240585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{001E2CC8-E04E-49D8-8EAD-C87C833522DC}"/>
+    <workbookView xWindow="-28920" yWindow="-1350" windowWidth="29040" windowHeight="15720" xr2:uid="{001E2CC8-E04E-49D8-8EAD-C87C833522DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,36 +36,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Número de Consultas</t>
-  </si>
-  <si>
-    <t>Tiempo (Implícito)</t>
-  </si>
-  <si>
-    <t>Tiempo (Explícito)</t>
   </si>
   <si>
     <t>Tamaño del Texto</t>
   </si>
   <si>
-    <t>0.00000 seconds</t>
+    <t>Tiempo (Explícito)  Seg</t>
   </si>
   <si>
-    <t>0.01028 seconds</t>
-  </si>
-  <si>
-    <t>0.00719 seconds</t>
-  </si>
-  <si>
-    <t>0.00603 seconds</t>
-  </si>
-  <si>
-    <t>0.01140 seconds</t>
-  </si>
-  <si>
-    <t>0.00690 seconds</t>
+    <t>Tiempo (Implícito)  Seg</t>
   </si>
 </sst>
 </file>
@@ -484,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E10CF398-707D-4015-86F4-0F7A97D03378}">
-  <dimension ref="B2:E5"/>
+  <dimension ref="B2:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -499,58 +481,142 @@
   <sheetData>
     <row r="2" spans="2:5" s="4" customFormat="1" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:5" s="4" customFormat="1" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" s="4" customFormat="1" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5">
         <v>100000</v>
       </c>
       <c r="C3" s="5">
         <v>1000</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" s="4" customFormat="1" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="5">
+        <v>1.8600000000000001E-3</v>
+      </c>
+      <c r="E3" s="5">
+        <v>3.49E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" s="4" customFormat="1" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5">
-        <v>1000000</v>
+        <v>100000</v>
       </c>
       <c r="C4" s="5">
         <v>10000</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" s="4" customFormat="1" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="5">
+        <v>2.1900000000000001E-3</v>
+      </c>
+      <c r="E4" s="5">
+        <v>2.1199999999999999E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" s="4" customFormat="1" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5">
-        <v>10000000</v>
+        <v>100000</v>
       </c>
       <c r="C5" s="5">
         <v>100000</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>9</v>
+      <c r="D5" s="5">
+        <v>2.1299999999999999E-3</v>
+      </c>
+      <c r="E5" s="5">
+        <v>2.5400000000000002E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1000</v>
+      </c>
+      <c r="D6" s="5">
+        <v>2.5200000000000001E-3</v>
+      </c>
+      <c r="E6" s="5">
+        <v>2.2499999999999998E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="C7" s="5">
+        <v>10000</v>
+      </c>
+      <c r="D7" s="5">
+        <v>2.7699999999999999E-3</v>
+      </c>
+      <c r="E7" s="5">
+        <v>2.0600000000000002E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="C8" s="5">
+        <v>100000</v>
+      </c>
+      <c r="D8" s="5">
+        <v>2.33E-3</v>
+      </c>
+      <c r="E8" s="5">
+        <v>2.4099999999999998E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="5">
+        <v>10000000</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1000</v>
+      </c>
+      <c r="D9" s="5">
+        <v>2.0400000000000001E-3</v>
+      </c>
+      <c r="E9" s="5">
+        <v>2.5899999999999999E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="5">
+        <v>10000000</v>
+      </c>
+      <c r="C10" s="5">
+        <v>10000</v>
+      </c>
+      <c r="D10" s="5">
+        <v>2.3600000000000001E-3</v>
+      </c>
+      <c r="E10" s="5">
+        <v>2.64E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="5">
+        <v>10000000</v>
+      </c>
+      <c r="C11" s="5">
+        <v>100000</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1.8400000000000001E-3</v>
+      </c>
+      <c r="E11" s="5">
+        <v>2.7000000000000001E-3</v>
       </c>
     </row>
   </sheetData>
